--- a/06-midtermproject/2024 Data Science Applied to Ag - Mid-term project groups.xlsx
+++ b/06-midtermproject/2024 Data Science Applied to Ag - Mid-term project groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmbastos/Desktop/Google Drive/1a - UGA 2022/2-Teaching/2024 CRSS 8030 - Data Science and Statistical Programming Applied to Ag/midterm_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmbastos/Desktop/Google Drive/1a - UGA 2022/2-Teaching/2024 CRSS 8030 - Data Science and Statistical Programming Applied to Ag/2024_dsa/06-midtermproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A7618E36-F5AB-974A-A588-7EE2B10A2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{313F350A-9FDA-1C45-B82E-DB3D0D2FEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1200" windowWidth="25360" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="22" uniqueCount="22">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="23" uniqueCount="23">
   <si>
     <t>Nushrat Niva</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Student without project</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
   </si>
 </sst>
 </file>
@@ -962,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC97D-24F1-8A45-B127-14C2402E7DE0}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,6 +1097,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
